--- a/RLFS Tables_ Annual_2022 (1).xlsx
+++ b/RLFS Tables_ Annual_2022 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YES TECHNOLOGY LTD\Desktop\hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E012FFDC-8D4B-4D94-9C73-10097A39FEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B490BED2-2B9B-4E15-B34A-642CFA029E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="871" firstSheet="31" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="871" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List Of Tables" sheetId="30" r:id="rId1"/>
@@ -3795,6 +3795,18 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3809,18 +3821,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3867,12 +3867,6 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="7" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="6" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3896,6 +3890,12 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="2" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="36" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3921,6 +3921,9 @@
     <xf numFmtId="0" fontId="40" fillId="35" borderId="2" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3929,9 +3932,6 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3960,10 +3960,10 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4002,9 +4002,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4016,6 +4013,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4071,15 +4071,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4089,11 +4080,20 @@
     <xf numFmtId="0" fontId="36" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4104,7 +4104,7 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4118,15 +4118,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="36" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4146,11 +4137,14 @@
     <xf numFmtId="0" fontId="5" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4161,11 +4155,20 @@
     <xf numFmtId="0" fontId="2" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4182,23 +4185,20 @@
     <xf numFmtId="166" fontId="21" fillId="0" borderId="7" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4209,17 +4209,20 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -4228,9 +4231,6 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4617,7 +4617,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A48" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A63" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -5353,56 +5353,56 @@
       <c r="A2" s="286">
         <v>15</v>
       </c>
-      <c r="B2" s="285" t="s">
+      <c r="B2" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="284" t="s">
+      <c r="C2" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="285" t="s">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="285" t="s">
+      <c r="H2" s="282" t="s">
         <v>380</v>
       </c>
-      <c r="I2" s="285" t="s">
+      <c r="I2" s="282" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="287"/>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285" t="s">
+      <c r="B3" s="282"/>
+      <c r="C3" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="285" t="s">
+      <c r="D3" s="282" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="285" t="s">
+      <c r="E3" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="285" t="s">
+      <c r="F3" s="282" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="285"/>
-      <c r="H3" s="285"/>
-      <c r="I3" s="285"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="288"/>
-      <c r="B4" s="285"/>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285"/>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285"/>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="282"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="282"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
     </row>
     <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="98" t="s">
@@ -5641,54 +5641,54 @@
       <c r="A15" s="292">
         <v>15</v>
       </c>
-      <c r="B15" s="285" t="s">
+      <c r="B15" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="284" t="s">
+      <c r="C15" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="284"/>
-      <c r="E15" s="284"/>
-      <c r="F15" s="284"/>
-      <c r="G15" s="285" t="s">
+      <c r="D15" s="285"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="285"/>
+      <c r="G15" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="285" t="s">
+      <c r="H15" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="285" t="s">
+      <c r="I15" s="282" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="293"/>
-      <c r="B16" s="285"/>
-      <c r="C16" s="285" t="s">
+      <c r="B16" s="282"/>
+      <c r="C16" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="285" t="s">
+      <c r="D16" s="282" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="285" t="s">
+      <c r="E16" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="285" t="s">
+      <c r="F16" s="282" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="285"/>
-      <c r="H16" s="285"/>
-      <c r="I16" s="285"/>
+      <c r="G16" s="282"/>
+      <c r="H16" s="282"/>
+      <c r="I16" s="282"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="294"/>
-      <c r="B17" s="285"/>
-      <c r="C17" s="285"/>
-      <c r="D17" s="285"/>
-      <c r="E17" s="285"/>
-      <c r="F17" s="285"/>
-      <c r="G17" s="285"/>
-      <c r="H17" s="285"/>
-      <c r="I17" s="285"/>
+      <c r="B17" s="282"/>
+      <c r="C17" s="282"/>
+      <c r="D17" s="282"/>
+      <c r="E17" s="282"/>
+      <c r="F17" s="282"/>
+      <c r="G17" s="282"/>
+      <c r="H17" s="282"/>
+      <c r="I17" s="282"/>
     </row>
     <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="98" t="s">
@@ -5936,12 +5936,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="A6:I6"/>
@@ -5958,6 +5952,12 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -5988,52 +5988,52 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="296"/>
-      <c r="B2" s="244" t="s">
+      <c r="A2" s="295"/>
+      <c r="B2" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="244" t="s">
+      <c r="C2" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="244" t="s">
+      <c r="D2" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="244" t="s">
+      <c r="E2" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="244" t="s">
+      <c r="F2" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="246" t="s">
+      <c r="G2" s="241" t="s">
         <v>509</v>
       </c>
-      <c r="H2" s="246" t="s">
+      <c r="H2" s="241" t="s">
         <v>516</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="296"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
+      <c r="A3" s="295"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="296"/>
-      <c r="B4" s="244"/>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
+      <c r="A4" s="295"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
@@ -6427,48 +6427,48 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="295"/>
-      <c r="B22" s="244" t="s">
+      <c r="A22" s="296"/>
+      <c r="B22" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="244" t="s">
+      <c r="D22" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="244" t="s">
+      <c r="E22" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="244" t="s">
+      <c r="F22" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="246" t="s">
+      <c r="G22" s="241" t="s">
         <v>509</v>
       </c>
-      <c r="H22" s="246" t="s">
+      <c r="H22" s="241" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="295"/>
-      <c r="B23" s="244"/>
-      <c r="C23" s="244"/>
-      <c r="D23" s="244"/>
-      <c r="E23" s="244"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="246"/>
-      <c r="H23" s="246"/>
+      <c r="A23" s="296"/>
+      <c r="B23" s="248"/>
+      <c r="C23" s="248"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="248"/>
+      <c r="F23" s="248"/>
+      <c r="G23" s="241"/>
+      <c r="H23" s="241"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="295"/>
-      <c r="B24" s="244"/>
-      <c r="C24" s="244"/>
-      <c r="D24" s="244"/>
-      <c r="E24" s="244"/>
-      <c r="F24" s="244"/>
-      <c r="G24" s="246"/>
-      <c r="H24" s="246"/>
+      <c r="A24" s="296"/>
+      <c r="B24" s="248"/>
+      <c r="C24" s="248"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="248"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="95" t="s">
@@ -6767,22 +6767,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="H22:H24"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
@@ -6841,10 +6841,10 @@
       <c r="F2" s="300" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="246" t="s">
+      <c r="G2" s="241" t="s">
         <v>509</v>
       </c>
-      <c r="H2" s="246" t="s">
+      <c r="H2" s="241" t="s">
         <v>516</v>
       </c>
       <c r="I2" s="14"/>
@@ -6857,8 +6857,8 @@
       <c r="D3" s="300"/>
       <c r="E3" s="300"/>
       <c r="F3" s="300"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
@@ -6869,8 +6869,8 @@
       <c r="D4" s="300"/>
       <c r="E4" s="300"/>
       <c r="F4" s="300"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="95" t="s">
@@ -6999,10 +6999,10 @@
       <c r="F11" s="298" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="246" t="s">
+      <c r="G11" s="241" t="s">
         <v>509</v>
       </c>
-      <c r="H11" s="246" t="s">
+      <c r="H11" s="241" t="s">
         <v>516</v>
       </c>
     </row>
@@ -7013,8 +7013,8 @@
       <c r="D12" s="298"/>
       <c r="E12" s="298"/>
       <c r="F12" s="298"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
+      <c r="G12" s="241"/>
+      <c r="H12" s="241"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="297"/>
@@ -7023,8 +7023,8 @@
       <c r="D13" s="298"/>
       <c r="E13" s="298"/>
       <c r="F13" s="298"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="246"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="95" t="s">
@@ -7331,10 +7331,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="296" t="s">
+      <c r="A2" s="295" t="s">
         <v>494</v>
       </c>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="241" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="301" t="s">
@@ -7346,8 +7346,8 @@
       <c r="G2" s="301"/>
     </row>
     <row r="3" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="296"/>
-      <c r="B3" s="246"/>
+      <c r="A3" s="295"/>
+      <c r="B3" s="241"/>
       <c r="C3" s="169" t="s">
         <v>118</v>
       </c>
@@ -8295,10 +8295,10 @@
       <c r="F2" s="301" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="246" t="s">
+      <c r="G2" s="241" t="s">
         <v>509</v>
       </c>
-      <c r="H2" s="246" t="s">
+      <c r="H2" s="241" t="s">
         <v>516</v>
       </c>
       <c r="I2" s="14"/>
@@ -8311,8 +8311,8 @@
       <c r="D3" s="301"/>
       <c r="E3" s="301"/>
       <c r="F3" s="301"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
@@ -8323,8 +8323,8 @@
       <c r="D4" s="301"/>
       <c r="E4" s="301"/>
       <c r="F4" s="301"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="98" t="s">
@@ -10955,10 +10955,10 @@
         <v>128</v>
       </c>
       <c r="F2" s="301"/>
-      <c r="G2" s="246" t="s">
+      <c r="G2" s="241" t="s">
         <v>509</v>
       </c>
-      <c r="H2" s="246" t="s">
+      <c r="H2" s="241" t="s">
         <v>516</v>
       </c>
     </row>
@@ -10977,8 +10977,8 @@
       <c r="F3" s="301" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="314"/>
@@ -10987,8 +10987,8 @@
       <c r="D4" s="301"/>
       <c r="E4" s="301"/>
       <c r="F4" s="301"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="95" t="s">
@@ -11017,14 +11017,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="310"/>
-      <c r="B6" s="311"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311"/>
-      <c r="F6" s="311"/>
-      <c r="G6" s="311"/>
-      <c r="H6" s="312"/>
+      <c r="A6" s="309"/>
+      <c r="B6" s="310"/>
+      <c r="C6" s="310"/>
+      <c r="D6" s="310"/>
+      <c r="E6" s="310"/>
+      <c r="F6" s="310"/>
+      <c r="G6" s="310"/>
+      <c r="H6" s="311"/>
     </row>
     <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="95" t="s">
@@ -11524,48 +11524,48 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="313"/>
-      <c r="B27" s="309" t="s">
+      <c r="A27" s="312"/>
+      <c r="B27" s="313" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="309" t="s">
+      <c r="C27" s="313" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="309" t="s">
+      <c r="D27" s="313" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="309" t="s">
+      <c r="E27" s="313" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="309" t="s">
+      <c r="F27" s="313" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="246" t="s">
+      <c r="G27" s="241" t="s">
         <v>509</v>
       </c>
-      <c r="H27" s="246" t="s">
+      <c r="H27" s="241" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="313"/>
-      <c r="B28" s="309"/>
-      <c r="C28" s="309"/>
-      <c r="D28" s="309"/>
-      <c r="E28" s="309"/>
-      <c r="F28" s="309"/>
-      <c r="G28" s="246"/>
-      <c r="H28" s="246"/>
+      <c r="A28" s="312"/>
+      <c r="B28" s="313"/>
+      <c r="C28" s="313"/>
+      <c r="D28" s="313"/>
+      <c r="E28" s="313"/>
+      <c r="F28" s="313"/>
+      <c r="G28" s="241"/>
+      <c r="H28" s="241"/>
     </row>
     <row r="29" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="313"/>
-      <c r="B29" s="309"/>
-      <c r="C29" s="309"/>
-      <c r="D29" s="309"/>
-      <c r="E29" s="309"/>
-      <c r="F29" s="309"/>
-      <c r="G29" s="246"/>
-      <c r="H29" s="246"/>
+      <c r="A29" s="312"/>
+      <c r="B29" s="313"/>
+      <c r="C29" s="313"/>
+      <c r="D29" s="313"/>
+      <c r="E29" s="313"/>
+      <c r="F29" s="313"/>
+      <c r="G29" s="241"/>
+      <c r="H29" s="241"/>
     </row>
     <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="160" t="s">
@@ -11932,6 +11932,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="G27:G29"/>
     <mergeCell ref="H27:H29"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="F3:F4"/>
@@ -11948,13 +11955,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="G27:G29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
@@ -14385,8 +14385,8 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14914,27 +14914,27 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="296"/>
-      <c r="B2" s="247" t="s">
+      <c r="A2" s="295"/>
+      <c r="B2" s="242" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247" t="s">
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247" t="s">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="296"/>
+      <c r="A3" s="295"/>
       <c r="B3" s="92" t="s">
         <v>9</v>
       </c>
@@ -17739,93 +17739,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="332" t="s">
+      <c r="A1" s="339" t="s">
         <v>654</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
+      <c r="G1" s="339"/>
+      <c r="H1" s="339"/>
+      <c r="I1" s="339"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="332"/>
-      <c r="B2" s="332"/>
-      <c r="C2" s="332"/>
-      <c r="D2" s="332"/>
-      <c r="E2" s="332"/>
-      <c r="F2" s="332"/>
-      <c r="G2" s="332"/>
-      <c r="H2" s="332"/>
-      <c r="I2" s="332"/>
+      <c r="A2" s="339"/>
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="333"/>
-      <c r="B3" s="338" t="s">
+      <c r="A3" s="343"/>
+      <c r="B3" s="337" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="295" t="s">
+      <c r="C3" s="296" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="295"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295" t="s">
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="295"/>
-      <c r="H3" s="295"/>
-      <c r="I3" s="295" t="s">
+      <c r="G3" s="296"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="295"/>
-      <c r="K3" s="295"/>
+      <c r="J3" s="296"/>
+      <c r="K3" s="296"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="333"/>
+      <c r="A4" s="343"/>
       <c r="B4" s="340"/>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="337" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="338" t="s">
+      <c r="D4" s="337" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="338" t="s">
+      <c r="E4" s="337" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="338" t="s">
+      <c r="F4" s="337" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="338" t="s">
+      <c r="G4" s="337" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="338" t="s">
+      <c r="H4" s="337" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="338" t="s">
+      <c r="I4" s="337" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="338" t="s">
+      <c r="J4" s="337" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="338" t="s">
+      <c r="K4" s="337" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="333"/>
-      <c r="B5" s="339"/>
-      <c r="C5" s="339"/>
-      <c r="D5" s="339"/>
-      <c r="E5" s="339"/>
-      <c r="F5" s="339"/>
-      <c r="G5" s="339"/>
-      <c r="H5" s="339"/>
-      <c r="I5" s="339"/>
-      <c r="J5" s="339"/>
-      <c r="K5" s="339"/>
+      <c r="A5" s="343"/>
+      <c r="B5" s="338"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
+      <c r="G5" s="338"/>
+      <c r="H5" s="338"/>
+      <c r="I5" s="338"/>
+      <c r="J5" s="338"/>
+      <c r="K5" s="338"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="95" t="s">
@@ -17863,17 +17863,17 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="310"/>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="311"/>
-      <c r="G7" s="311"/>
-      <c r="H7" s="311"/>
-      <c r="I7" s="311"/>
-      <c r="J7" s="311"/>
-      <c r="K7" s="312"/>
+      <c r="A7" s="309"/>
+      <c r="B7" s="310"/>
+      <c r="C7" s="310"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="310"/>
+      <c r="J7" s="310"/>
+      <c r="K7" s="311"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="95" t="s">
@@ -18099,55 +18099,55 @@
       <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="332" t="s">
+      <c r="A15" s="339" t="s">
         <v>655</v>
       </c>
-      <c r="B15" s="332"/>
-      <c r="C15" s="332"/>
-      <c r="D15" s="332"/>
-      <c r="E15" s="332"/>
-      <c r="F15" s="332"/>
-      <c r="G15" s="332"/>
-      <c r="H15" s="332"/>
-      <c r="I15" s="332"/>
+      <c r="B15" s="339"/>
+      <c r="C15" s="339"/>
+      <c r="D15" s="339"/>
+      <c r="E15" s="339"/>
+      <c r="F15" s="339"/>
+      <c r="G15" s="339"/>
+      <c r="H15" s="339"/>
+      <c r="I15" s="339"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="332"/>
-      <c r="B16" s="332"/>
-      <c r="C16" s="332"/>
-      <c r="D16" s="332"/>
-      <c r="E16" s="332"/>
-      <c r="F16" s="332"/>
-      <c r="G16" s="332"/>
-      <c r="H16" s="332"/>
-      <c r="I16" s="332"/>
+      <c r="A16" s="339"/>
+      <c r="B16" s="339"/>
+      <c r="C16" s="339"/>
+      <c r="D16" s="339"/>
+      <c r="E16" s="339"/>
+      <c r="F16" s="339"/>
+      <c r="G16" s="339"/>
+      <c r="H16" s="339"/>
+      <c r="I16" s="339"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="341" t="s">
         <v>382</v>
       </c>
-      <c r="B17" s="338" t="s">
+      <c r="B17" s="337" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="335" t="s">
+      <c r="C17" s="332" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="336"/>
-      <c r="E17" s="337"/>
-      <c r="F17" s="335" t="s">
+      <c r="D17" s="333"/>
+      <c r="E17" s="334"/>
+      <c r="F17" s="332" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="336"/>
-      <c r="H17" s="337"/>
-      <c r="I17" s="335" t="s">
+      <c r="G17" s="333"/>
+      <c r="H17" s="334"/>
+      <c r="I17" s="332" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="336"/>
-      <c r="K17" s="337"/>
+      <c r="J17" s="333"/>
+      <c r="K17" s="334"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="342"/>
-      <c r="B18" s="339"/>
+      <c r="B18" s="338"/>
       <c r="C18" s="112" t="s">
         <v>9</v>
       </c>
@@ -18402,35 +18402,35 @@
       <c r="R24" s="55"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="343" t="s">
+      <c r="A25" s="335" t="s">
         <v>383</v>
       </c>
-      <c r="B25" s="343" t="s">
+      <c r="B25" s="335" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="334" t="s">
+      <c r="C25" s="336" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="334"/>
-      <c r="E25" s="334"/>
-      <c r="F25" s="334" t="s">
+      <c r="D25" s="336"/>
+      <c r="E25" s="336"/>
+      <c r="F25" s="336" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="334"/>
-      <c r="H25" s="334"/>
-      <c r="I25" s="334" t="s">
+      <c r="G25" s="336"/>
+      <c r="H25" s="336"/>
+      <c r="I25" s="336" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="334"/>
-      <c r="K25" s="334"/>
+      <c r="J25" s="336"/>
+      <c r="K25" s="336"/>
       <c r="O25" s="55"/>
       <c r="P25" s="55"/>
       <c r="Q25" s="55"/>
       <c r="R25" s="55"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="343"/>
-      <c r="B26" s="343"/>
+      <c r="A26" s="335"/>
+      <c r="B26" s="335"/>
       <c r="C26" s="117" t="s">
         <v>9</v>
       </c>
@@ -18683,12 +18683,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="E4:E5"/>
@@ -18705,11 +18704,12 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="landscape" r:id="rId1"/>
@@ -19161,70 +19161,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="354" t="s">
         <v>657</v>
       </c>
-      <c r="B1" s="348"/>
-      <c r="C1" s="348"/>
-      <c r="D1" s="348"/>
-      <c r="E1" s="348"/>
-      <c r="F1" s="348"/>
-      <c r="G1" s="348"/>
-      <c r="H1" s="348"/>
-      <c r="I1" s="348"/>
+      <c r="B1" s="354"/>
+      <c r="C1" s="354"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="350">
+      <c r="A2" s="356">
         <v>15</v>
       </c>
-      <c r="B2" s="283" t="s">
+      <c r="B2" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="349" t="s">
+      <c r="C2" s="355" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="349"/>
-      <c r="E2" s="349"/>
-      <c r="F2" s="349"/>
-      <c r="G2" s="283" t="s">
+      <c r="D2" s="355"/>
+      <c r="E2" s="355"/>
+      <c r="F2" s="355"/>
+      <c r="G2" s="284" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="283" t="s">
+      <c r="H2" s="284" t="s">
         <v>380</v>
       </c>
-      <c r="I2" s="283" t="s">
+      <c r="I2" s="284" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="350"/>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283" t="s">
+      <c r="A3" s="356"/>
+      <c r="B3" s="284"/>
+      <c r="C3" s="284" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="283" t="s">
+      <c r="D3" s="284" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="283" t="s">
+      <c r="E3" s="284" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="283" t="s">
+      <c r="F3" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="350"/>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283"/>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283"/>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
+      <c r="A4" s="356"/>
+      <c r="B4" s="284"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="284"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.35">
@@ -19261,15 +19261,15 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="351"/>
-      <c r="B6" s="352"/>
-      <c r="C6" s="352"/>
-      <c r="D6" s="352"/>
-      <c r="E6" s="352"/>
-      <c r="F6" s="352"/>
-      <c r="G6" s="352"/>
-      <c r="H6" s="352"/>
-      <c r="I6" s="353"/>
+      <c r="A6" s="348"/>
+      <c r="B6" s="349"/>
+      <c r="C6" s="349"/>
+      <c r="D6" s="349"/>
+      <c r="E6" s="349"/>
+      <c r="F6" s="349"/>
+      <c r="G6" s="349"/>
+      <c r="H6" s="349"/>
+      <c r="I6" s="350"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="129" t="s">
@@ -19439,15 +19439,15 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="351"/>
-      <c r="B12" s="352"/>
-      <c r="C12" s="352"/>
-      <c r="D12" s="352"/>
-      <c r="E12" s="352"/>
-      <c r="F12" s="352"/>
-      <c r="G12" s="352"/>
-      <c r="H12" s="352"/>
-      <c r="I12" s="353"/>
+      <c r="A12" s="348"/>
+      <c r="B12" s="349"/>
+      <c r="C12" s="349"/>
+      <c r="D12" s="349"/>
+      <c r="E12" s="349"/>
+      <c r="F12" s="349"/>
+      <c r="G12" s="349"/>
+      <c r="H12" s="349"/>
+      <c r="I12" s="350"/>
     </row>
     <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.35">
       <c r="A13" s="125" t="s">
@@ -19660,15 +19660,15 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="351"/>
-      <c r="B20" s="352"/>
-      <c r="C20" s="352"/>
-      <c r="D20" s="352"/>
-      <c r="E20" s="352"/>
-      <c r="F20" s="352"/>
-      <c r="G20" s="352"/>
-      <c r="H20" s="352"/>
-      <c r="I20" s="353"/>
+      <c r="A20" s="348"/>
+      <c r="B20" s="349"/>
+      <c r="C20" s="349"/>
+      <c r="D20" s="349"/>
+      <c r="E20" s="349"/>
+      <c r="F20" s="349"/>
+      <c r="G20" s="349"/>
+      <c r="H20" s="349"/>
+      <c r="I20" s="350"/>
     </row>
     <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A21" s="125" t="s">
@@ -19880,15 +19880,15 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="354"/>
-      <c r="B28" s="355"/>
-      <c r="C28" s="355"/>
-      <c r="D28" s="355"/>
-      <c r="E28" s="355"/>
-      <c r="F28" s="355"/>
-      <c r="G28" s="355"/>
-      <c r="H28" s="355"/>
-      <c r="I28" s="356"/>
+      <c r="A28" s="351"/>
+      <c r="B28" s="352"/>
+      <c r="C28" s="352"/>
+      <c r="D28" s="352"/>
+      <c r="E28" s="352"/>
+      <c r="F28" s="352"/>
+      <c r="G28" s="352"/>
+      <c r="H28" s="352"/>
+      <c r="I28" s="353"/>
     </row>
     <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A29" s="125" t="s">
@@ -20100,17 +20100,17 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="354" t="s">
+      <c r="A36" s="351" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="355"/>
-      <c r="C36" s="355"/>
-      <c r="D36" s="355"/>
-      <c r="E36" s="355"/>
-      <c r="F36" s="355"/>
-      <c r="G36" s="355"/>
-      <c r="H36" s="355"/>
-      <c r="I36" s="356"/>
+      <c r="B36" s="352"/>
+      <c r="C36" s="352"/>
+      <c r="D36" s="352"/>
+      <c r="E36" s="352"/>
+      <c r="F36" s="352"/>
+      <c r="G36" s="352"/>
+      <c r="H36" s="352"/>
+      <c r="I36" s="353"/>
     </row>
     <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.35">
       <c r="A37" s="125" t="s">
@@ -20347,11 +20347,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A36:I36"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:F2"/>
@@ -20363,6 +20358,11 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A36:I36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
@@ -20388,16 +20388,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="357" t="s">
+      <c r="A1" s="363" t="s">
         <v>658</v>
       </c>
-      <c r="B1" s="357"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
+      <c r="B1" s="363"/>
+      <c r="C1" s="363"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="363"/>
+      <c r="F1" s="363"/>
+      <c r="G1" s="363"/>
+      <c r="H1" s="363"/>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
@@ -20405,19 +20405,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="301"/>
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="242" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247" t="s">
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="358"/>
-      <c r="G2" s="247" t="s">
+      <c r="F2" s="360"/>
+      <c r="G2" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="358"/>
+      <c r="H2" s="360"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="301"/>
@@ -20620,35 +20620,35 @@
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="357" t="s">
+      <c r="A12" s="363" t="s">
         <v>659</v>
       </c>
-      <c r="B12" s="357"/>
-      <c r="C12" s="357"/>
-      <c r="D12" s="357"/>
-      <c r="E12" s="357"/>
-      <c r="F12" s="357"/>
-      <c r="G12" s="357"/>
-      <c r="H12" s="357"/>
+      <c r="B12" s="363"/>
+      <c r="C12" s="363"/>
+      <c r="D12" s="363"/>
+      <c r="E12" s="363"/>
+      <c r="F12" s="363"/>
+      <c r="G12" s="363"/>
+      <c r="H12" s="363"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="362"/>
-      <c r="B13" s="247" t="s">
+      <c r="A13" s="361"/>
+      <c r="B13" s="242" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247" t="s">
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="242" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="358"/>
-      <c r="G13" s="247" t="s">
+      <c r="F13" s="360"/>
+      <c r="G13" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="358"/>
+      <c r="H13" s="360"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="363"/>
+      <c r="A14" s="362"/>
       <c r="B14" s="92" t="s">
         <v>9</v>
       </c>
@@ -20698,14 +20698,14 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="359"/>
-      <c r="B16" s="360"/>
-      <c r="C16" s="360"/>
-      <c r="D16" s="360"/>
-      <c r="E16" s="360"/>
-      <c r="F16" s="360"/>
-      <c r="G16" s="360"/>
-      <c r="H16" s="361"/>
+      <c r="A16" s="357"/>
+      <c r="B16" s="358"/>
+      <c r="C16" s="358"/>
+      <c r="D16" s="358"/>
+      <c r="E16" s="358"/>
+      <c r="F16" s="358"/>
+      <c r="G16" s="358"/>
+      <c r="H16" s="359"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="95" t="s">
@@ -20942,6 +20942,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A12:H12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:F13"/>
@@ -20949,11 +20954,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="landscape" r:id="rId1"/>
@@ -20978,112 +20978,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="332" t="s">
+      <c r="A1" s="339" t="s">
         <v>660</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
+      <c r="G1" s="339"/>
+      <c r="H1" s="339"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="332"/>
-      <c r="B2" s="332"/>
-      <c r="C2" s="332"/>
-      <c r="D2" s="332"/>
-      <c r="E2" s="332"/>
-      <c r="F2" s="332"/>
-      <c r="G2" s="332"/>
-      <c r="H2" s="332"/>
+      <c r="A2" s="339"/>
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="301"/>
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="242" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247" t="s">
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="358"/>
-      <c r="G3" s="247" t="s">
+      <c r="F3" s="360"/>
+      <c r="G3" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="358"/>
+      <c r="H3" s="360"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="301"/>
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="244" t="s">
+      <c r="D4" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="244" t="s">
+      <c r="E4" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="244" t="s">
+      <c r="F4" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="244" t="s">
+      <c r="G4" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="244" t="s">
+      <c r="H4" s="248" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="301"/>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="369" t="s">
+      <c r="A6" s="364" t="s">
         <v>372</v>
       </c>
-      <c r="B6" s="367">
+      <c r="B6" s="368">
         <v>1217890</v>
       </c>
-      <c r="C6" s="367">
+      <c r="C6" s="368">
         <v>504465</v>
       </c>
-      <c r="D6" s="367">
+      <c r="D6" s="368">
         <v>713425</v>
       </c>
-      <c r="E6" s="367">
+      <c r="E6" s="368">
         <v>79048</v>
       </c>
-      <c r="F6" s="367">
+      <c r="F6" s="368">
         <v>134258</v>
       </c>
-      <c r="G6" s="367">
+      <c r="G6" s="368">
         <v>425417</v>
       </c>
-      <c r="H6" s="367">
+      <c r="H6" s="368">
         <v>579167</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="369"/>
-      <c r="B7" s="368"/>
-      <c r="C7" s="368"/>
-      <c r="D7" s="368"/>
-      <c r="E7" s="368"/>
-      <c r="F7" s="368"/>
-      <c r="G7" s="368"/>
-      <c r="H7" s="368"/>
+      <c r="A7" s="364"/>
+      <c r="B7" s="369"/>
+      <c r="C7" s="369"/>
+      <c r="D7" s="369"/>
+      <c r="E7" s="369"/>
+      <c r="F7" s="369"/>
+      <c r="G7" s="369"/>
+      <c r="H7" s="369"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="132" t="s">
@@ -21164,14 +21164,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="364"/>
-      <c r="B11" s="365"/>
-      <c r="C11" s="365"/>
-      <c r="D11" s="365"/>
-      <c r="E11" s="365"/>
-      <c r="F11" s="365"/>
-      <c r="G11" s="365"/>
-      <c r="H11" s="366"/>
+      <c r="A11" s="365"/>
+      <c r="B11" s="366"/>
+      <c r="C11" s="366"/>
+      <c r="D11" s="366"/>
+      <c r="E11" s="366"/>
+      <c r="F11" s="366"/>
+      <c r="G11" s="366"/>
+      <c r="H11" s="367"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="133" t="s">
@@ -21317,6 +21317,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -21330,14 +21338,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="landscape" r:id="rId1"/>
@@ -21367,7 +21367,7 @@
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="371"/>
-      <c r="B2" s="370" t="s">
+      <c r="B2" s="372" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="371" t="s">
@@ -21378,40 +21378,40 @@
         <v>522</v>
       </c>
       <c r="F2" s="371"/>
-      <c r="G2" s="372" t="s">
+      <c r="G2" s="370" t="s">
         <v>541</v>
       </c>
-      <c r="H2" s="372" t="s">
+      <c r="H2" s="370" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="371"/>
-      <c r="B3" s="370"/>
-      <c r="C3" s="370" t="s">
+      <c r="B3" s="372"/>
+      <c r="C3" s="372" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="370" t="s">
+      <c r="D3" s="372" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="370" t="s">
+      <c r="E3" s="372" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="370" t="s">
+      <c r="F3" s="372" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="372"/>
-      <c r="H3" s="372"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="370"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="371"/>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="372"/>
-      <c r="H4" s="372"/>
+      <c r="B4" s="372"/>
+      <c r="C4" s="372"/>
+      <c r="D4" s="372"/>
+      <c r="E4" s="372"/>
+      <c r="F4" s="372"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="135" t="s">
@@ -21615,7 +21615,7 @@
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="371"/>
-      <c r="B14" s="370" t="s">
+      <c r="B14" s="372" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="371" t="s">
@@ -21626,40 +21626,40 @@
         <v>522</v>
       </c>
       <c r="F14" s="371"/>
-      <c r="G14" s="372" t="s">
+      <c r="G14" s="370" t="s">
         <v>541</v>
       </c>
-      <c r="H14" s="372" t="s">
+      <c r="H14" s="370" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="371"/>
-      <c r="B15" s="370"/>
-      <c r="C15" s="370" t="s">
+      <c r="B15" s="372"/>
+      <c r="C15" s="372" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="370" t="s">
+      <c r="D15" s="372" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="370" t="s">
+      <c r="E15" s="372" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="370" t="s">
+      <c r="F15" s="372" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="372"/>
-      <c r="H15" s="372"/>
+      <c r="G15" s="370"/>
+      <c r="H15" s="370"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="371"/>
-      <c r="B16" s="370"/>
-      <c r="C16" s="370"/>
-      <c r="D16" s="370"/>
-      <c r="E16" s="370"/>
-      <c r="F16" s="370"/>
-      <c r="G16" s="372"/>
-      <c r="H16" s="372"/>
+      <c r="B16" s="372"/>
+      <c r="C16" s="372"/>
+      <c r="D16" s="372"/>
+      <c r="E16" s="372"/>
+      <c r="F16" s="372"/>
+      <c r="G16" s="370"/>
+      <c r="H16" s="370"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="135" t="s">
@@ -21909,6 +21909,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="G2:G4"/>
@@ -21925,12 +21931,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -21962,48 +21962,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="374"/>
-      <c r="B2" s="370" t="s">
+      <c r="A2" s="373"/>
+      <c r="B2" s="372" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="370" t="s">
+      <c r="C2" s="372" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="370" t="s">
+      <c r="D2" s="372" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="370" t="s">
+      <c r="E2" s="372" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="370" t="s">
+      <c r="F2" s="372" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="372" t="s">
+      <c r="G2" s="370" t="s">
         <v>541</v>
       </c>
-      <c r="H2" s="372" t="s">
+      <c r="H2" s="370" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="374"/>
-      <c r="B3" s="370"/>
-      <c r="C3" s="370"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
-      <c r="F3" s="370"/>
-      <c r="G3" s="372"/>
-      <c r="H3" s="372"/>
+      <c r="A3" s="373"/>
+      <c r="B3" s="372"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="372"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="370"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="374"/>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="372"/>
-      <c r="H4" s="372"/>
+      <c r="A4" s="373"/>
+      <c r="B4" s="372"/>
+      <c r="C4" s="372"/>
+      <c r="D4" s="372"/>
+      <c r="E4" s="372"/>
+      <c r="F4" s="372"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="135" t="s">
@@ -22033,14 +22033,14 @@
       <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="374"/>
-      <c r="B6" s="374"/>
-      <c r="C6" s="374"/>
-      <c r="D6" s="374"/>
-      <c r="E6" s="374"/>
-      <c r="F6" s="374"/>
-      <c r="G6" s="374"/>
-      <c r="H6" s="374"/>
+      <c r="A6" s="373"/>
+      <c r="B6" s="373"/>
+      <c r="C6" s="373"/>
+      <c r="D6" s="373"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
+      <c r="G6" s="373"/>
+      <c r="H6" s="373"/>
     </row>
     <row r="7" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="137" t="s">
@@ -22249,26 +22249,26 @@
       <c r="H15" s="138"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="373" t="s">
+      <c r="A16" s="374" t="s">
         <v>479</v>
       </c>
-      <c r="B16" s="373"/>
-      <c r="C16" s="373"/>
-      <c r="D16" s="373"/>
-      <c r="E16" s="373"/>
-      <c r="F16" s="373"/>
-      <c r="G16" s="373"/>
-      <c r="H16" s="373"/>
+      <c r="B16" s="374"/>
+      <c r="C16" s="374"/>
+      <c r="D16" s="374"/>
+      <c r="E16" s="374"/>
+      <c r="F16" s="374"/>
+      <c r="G16" s="374"/>
+      <c r="H16" s="374"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="373"/>
-      <c r="B17" s="373"/>
-      <c r="C17" s="373"/>
-      <c r="D17" s="373"/>
-      <c r="E17" s="373"/>
-      <c r="F17" s="373"/>
-      <c r="G17" s="373"/>
-      <c r="H17" s="373"/>
+      <c r="A17" s="374"/>
+      <c r="B17" s="374"/>
+      <c r="C17" s="374"/>
+      <c r="D17" s="374"/>
+      <c r="E17" s="374"/>
+      <c r="F17" s="374"/>
+      <c r="G17" s="374"/>
+      <c r="H17" s="374"/>
     </row>
     <row r="18" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
@@ -22286,48 +22286,48 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="374"/>
-      <c r="B20" s="370" t="s">
+      <c r="A20" s="373"/>
+      <c r="B20" s="372" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="370" t="s">
+      <c r="C20" s="372" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="370" t="s">
+      <c r="D20" s="372" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="370" t="s">
+      <c r="E20" s="372" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="370" t="s">
+      <c r="F20" s="372" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="372" t="s">
+      <c r="G20" s="370" t="s">
         <v>541</v>
       </c>
-      <c r="H20" s="372" t="s">
+      <c r="H20" s="370" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="374"/>
-      <c r="B21" s="370"/>
-      <c r="C21" s="370"/>
-      <c r="D21" s="370"/>
-      <c r="E21" s="370"/>
-      <c r="F21" s="370"/>
-      <c r="G21" s="372"/>
-      <c r="H21" s="372"/>
+      <c r="A21" s="373"/>
+      <c r="B21" s="372"/>
+      <c r="C21" s="372"/>
+      <c r="D21" s="372"/>
+      <c r="E21" s="372"/>
+      <c r="F21" s="372"/>
+      <c r="G21" s="370"/>
+      <c r="H21" s="370"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="374"/>
-      <c r="B22" s="370"/>
-      <c r="C22" s="370"/>
-      <c r="D22" s="370"/>
-      <c r="E22" s="370"/>
-      <c r="F22" s="370"/>
-      <c r="G22" s="372"/>
-      <c r="H22" s="372"/>
+      <c r="A22" s="373"/>
+      <c r="B22" s="372"/>
+      <c r="C22" s="372"/>
+      <c r="D22" s="372"/>
+      <c r="E22" s="372"/>
+      <c r="F22" s="372"/>
+      <c r="G22" s="370"/>
+      <c r="H22" s="370"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="139" t="s">
@@ -22356,14 +22356,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="374"/>
-      <c r="B24" s="374"/>
-      <c r="C24" s="374"/>
-      <c r="D24" s="374"/>
-      <c r="E24" s="374"/>
-      <c r="F24" s="374"/>
-      <c r="G24" s="374"/>
-      <c r="H24" s="374"/>
+      <c r="A24" s="373"/>
+      <c r="B24" s="373"/>
+      <c r="C24" s="373"/>
+      <c r="D24" s="373"/>
+      <c r="E24" s="373"/>
+      <c r="F24" s="373"/>
+      <c r="G24" s="373"/>
+      <c r="H24" s="373"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="95" t="s">
@@ -22598,15 +22598,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
     <mergeCell ref="A16:H17"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -22617,6 +22608,15 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
@@ -22649,32 +22649,32 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="243"/>
-      <c r="B2" s="244" t="s">
+      <c r="A2" s="247"/>
+      <c r="B2" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="244" t="s">
+      <c r="C2" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="244" t="s">
+      <c r="D2" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="244" t="s">
+      <c r="E2" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="244" t="s">
+      <c r="F2" s="248" t="s">
         <v>48</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="243"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
+      <c r="A3" s="247"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
@@ -22701,12 +22701,12 @@
       <c r="H4" s="71"/>
     </row>
     <row r="5" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="240"/>
-      <c r="B5" s="241"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="242"/>
+      <c r="A5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="246"/>
       <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -23077,40 +23077,40 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="246" t="s">
+      <c r="A24" s="241" t="s">
         <v>351</v>
       </c>
-      <c r="B24" s="246" t="s">
+      <c r="B24" s="241" t="s">
         <v>352</v>
       </c>
-      <c r="C24" s="246" t="s">
+      <c r="C24" s="241" t="s">
         <v>506</v>
       </c>
-      <c r="D24" s="246"/>
-      <c r="E24" s="247" t="s">
+      <c r="D24" s="241"/>
+      <c r="E24" s="242" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="247"/>
-      <c r="G24" s="246" t="s">
+      <c r="F24" s="242"/>
+      <c r="G24" s="241" t="s">
         <v>509</v>
       </c>
-      <c r="H24" s="245" t="s">
+      <c r="H24" s="240" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="246"/>
-      <c r="B25" s="246"/>
-      <c r="C25" s="246"/>
-      <c r="D25" s="246"/>
-      <c r="E25" s="248"/>
-      <c r="F25" s="247"/>
-      <c r="G25" s="246"/>
-      <c r="H25" s="245"/>
+      <c r="A25" s="241"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="241"/>
+      <c r="E25" s="243"/>
+      <c r="F25" s="242"/>
+      <c r="G25" s="241"/>
+      <c r="H25" s="240"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="246"/>
-      <c r="B26" s="246"/>
+      <c r="A26" s="241"/>
+      <c r="B26" s="241"/>
       <c r="C26" s="92" t="s">
         <v>311</v>
       </c>
@@ -23123,8 +23123,8 @@
       <c r="F26" s="92" t="s">
         <v>314</v>
       </c>
-      <c r="G26" s="246"/>
-      <c r="H26" s="245"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="240"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="95"/>
@@ -23436,12 +23436,6 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -23449,6 +23443,12 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -23485,21 +23485,21 @@
       <c r="A2" s="375" t="s">
         <v>543</v>
       </c>
-      <c r="B2" s="334" t="s">
+      <c r="B2" s="336" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="334" t="s">
+      <c r="C2" s="336" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334" t="s">
+      <c r="D2" s="336"/>
+      <c r="E2" s="336" t="s">
         <v>522</v>
       </c>
-      <c r="F2" s="334"/>
+      <c r="F2" s="336"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="375"/>
-      <c r="B3" s="334"/>
+      <c r="B3" s="336"/>
       <c r="C3" s="101" t="s">
         <v>46</v>
       </c>
@@ -24216,48 +24216,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="374"/>
-      <c r="B2" s="370" t="s">
+      <c r="A2" s="373"/>
+      <c r="B2" s="372" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="370" t="s">
+      <c r="C2" s="372" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="370" t="s">
+      <c r="D2" s="372" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="370" t="s">
+      <c r="E2" s="372" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="370" t="s">
+      <c r="F2" s="372" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="372" t="s">
+      <c r="G2" s="370" t="s">
         <v>541</v>
       </c>
-      <c r="H2" s="372" t="s">
+      <c r="H2" s="370" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="374"/>
-      <c r="B3" s="370"/>
-      <c r="C3" s="370"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
-      <c r="F3" s="370"/>
-      <c r="G3" s="372"/>
-      <c r="H3" s="372"/>
+      <c r="A3" s="373"/>
+      <c r="B3" s="372"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="372"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="370"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="374"/>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="372"/>
-      <c r="H4" s="372"/>
+      <c r="A4" s="373"/>
+      <c r="B4" s="372"/>
+      <c r="C4" s="372"/>
+      <c r="D4" s="372"/>
+      <c r="E4" s="372"/>
+      <c r="F4" s="372"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="135" t="s">
@@ -24405,48 +24405,48 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="374"/>
-      <c r="B12" s="370" t="s">
+      <c r="A12" s="373"/>
+      <c r="B12" s="372" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="370" t="s">
+      <c r="C12" s="372" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="370" t="s">
+      <c r="D12" s="372" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="370" t="s">
+      <c r="E12" s="372" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="370" t="s">
+      <c r="F12" s="372" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="372" t="s">
+      <c r="G12" s="370" t="s">
         <v>541</v>
       </c>
-      <c r="H12" s="372" t="s">
+      <c r="H12" s="370" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="374"/>
-      <c r="B13" s="370"/>
-      <c r="C13" s="370"/>
-      <c r="D13" s="370"/>
-      <c r="E13" s="370"/>
-      <c r="F13" s="370"/>
-      <c r="G13" s="372"/>
-      <c r="H13" s="372"/>
+      <c r="A13" s="373"/>
+      <c r="B13" s="372"/>
+      <c r="C13" s="372"/>
+      <c r="D13" s="372"/>
+      <c r="E13" s="372"/>
+      <c r="F13" s="372"/>
+      <c r="G13" s="370"/>
+      <c r="H13" s="370"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="374"/>
-      <c r="B14" s="370"/>
-      <c r="C14" s="370"/>
-      <c r="D14" s="370"/>
-      <c r="E14" s="370"/>
-      <c r="F14" s="370"/>
-      <c r="G14" s="372"/>
-      <c r="H14" s="372"/>
+      <c r="A14" s="373"/>
+      <c r="B14" s="372"/>
+      <c r="C14" s="372"/>
+      <c r="D14" s="372"/>
+      <c r="E14" s="372"/>
+      <c r="F14" s="372"/>
+      <c r="G14" s="370"/>
+      <c r="H14" s="370"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="135" t="s">
@@ -24863,19 +24863,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="301"/>
-      <c r="B32" s="247" t="s">
+      <c r="B32" s="242" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="247"/>
-      <c r="D32" s="247"/>
-      <c r="E32" s="247" t="s">
+      <c r="C32" s="242"/>
+      <c r="D32" s="242"/>
+      <c r="E32" s="242" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="358"/>
-      <c r="G32" s="247" t="s">
+      <c r="F32" s="360"/>
+      <c r="G32" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="358"/>
+      <c r="H32" s="360"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="301"/>
@@ -25163,11 +25163,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
@@ -25184,6 +25179,11 @@
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="A31:H31"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="landscape" r:id="rId1"/>
@@ -25212,25 +25212,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="332" t="s">
+      <c r="B1" s="339" t="s">
         <v>669</v>
       </c>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
+      <c r="G1" s="339"/>
+      <c r="H1" s="339"/>
+      <c r="I1" s="339"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
-      <c r="B2" s="296"/>
-      <c r="C2" s="247" t="s">
+      <c r="B2" s="295"/>
+      <c r="C2" s="242" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
       <c r="F2" s="249" t="s">
         <v>49</v>
       </c>
@@ -25244,7 +25244,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
-      <c r="B3" s="296"/>
+      <c r="B3" s="295"/>
       <c r="C3" s="92" t="s">
         <v>9</v>
       </c>
@@ -25306,16 +25306,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="240"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
-      <c r="G5" s="241"/>
-      <c r="H5" s="241"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="242"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="245"/>
+      <c r="K5" s="246"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" s="143" t="s">
@@ -25851,33 +25851,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="378" t="s">
         <v>670</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="378"/>
+      <c r="I1" s="378"/>
+      <c r="J1" s="378"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="380"/>
-      <c r="B2" s="380"/>
-      <c r="C2" s="380"/>
-      <c r="D2" s="380"/>
-      <c r="E2" s="380"/>
-      <c r="F2" s="380"/>
-      <c r="G2" s="380"/>
-      <c r="H2" s="380"/>
-      <c r="I2" s="380"/>
-      <c r="J2" s="380"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
+      <c r="H2" s="378"/>
+      <c r="I2" s="378"/>
+      <c r="J2" s="378"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="378"/>
+      <c r="A3" s="379"/>
       <c r="B3" s="301" t="s">
         <v>77</v>
       </c>
@@ -25895,7 +25895,7 @@
       <c r="J3" s="301"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="379"/>
+      <c r="A4" s="380"/>
       <c r="B4" s="99" t="s">
         <v>9</v>
       </c>
@@ -26237,30 +26237,30 @@
       <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="380" t="s">
+      <c r="A16" s="378" t="s">
         <v>671</v>
       </c>
-      <c r="B16" s="380"/>
-      <c r="C16" s="380"/>
-      <c r="D16" s="380"/>
-      <c r="E16" s="380"/>
-      <c r="F16" s="380"/>
-      <c r="G16" s="380"/>
-      <c r="H16" s="380"/>
-      <c r="I16" s="380"/>
-      <c r="J16" s="380"/>
+      <c r="B16" s="378"/>
+      <c r="C16" s="378"/>
+      <c r="D16" s="378"/>
+      <c r="E16" s="378"/>
+      <c r="F16" s="378"/>
+      <c r="G16" s="378"/>
+      <c r="H16" s="378"/>
+      <c r="I16" s="378"/>
+      <c r="J16" s="378"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="380"/>
-      <c r="B17" s="380"/>
-      <c r="C17" s="380"/>
-      <c r="D17" s="380"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="380"/>
-      <c r="H17" s="380"/>
-      <c r="I17" s="380"/>
-      <c r="J17" s="380"/>
+      <c r="A17" s="378"/>
+      <c r="B17" s="378"/>
+      <c r="C17" s="378"/>
+      <c r="D17" s="378"/>
+      <c r="E17" s="378"/>
+      <c r="F17" s="378"/>
+      <c r="G17" s="378"/>
+      <c r="H17" s="378"/>
+      <c r="I17" s="378"/>
+      <c r="J17" s="378"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="301"/>
@@ -26636,17 +26636,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A16:J17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A16:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
@@ -26673,38 +26673,38 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="247"/>
-      <c r="B2" s="244" t="s">
+      <c r="A2" s="242"/>
+      <c r="B2" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="244" t="s">
+      <c r="C2" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="244" t="s">
+      <c r="D2" s="248" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="381" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="244" t="s">
+      <c r="F2" s="248" t="s">
         <v>280</v>
       </c>
-      <c r="G2" s="244" t="s">
+      <c r="G2" s="248" t="s">
         <v>281</v>
       </c>
-      <c r="H2" s="244" t="s">
+      <c r="H2" s="248" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="247"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
+      <c r="A3" s="242"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
       <c r="E3" s="381"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="248"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="95" t="s">
@@ -27211,40 +27211,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="248" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="244" t="s">
+      <c r="C2" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="244" t="s">
+      <c r="D2" s="248" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="381" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="244" t="s">
+      <c r="F2" s="248" t="s">
         <v>280</v>
       </c>
-      <c r="G2" s="244" t="s">
+      <c r="G2" s="248" t="s">
         <v>281</v>
       </c>
-      <c r="H2" s="244" t="s">
+      <c r="H2" s="248" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="244"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
+      <c r="A3" s="248"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
       <c r="E3" s="381"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="248"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="95" t="s">
@@ -27697,14 +27697,14 @@
       <c r="I18" s="44"/>
     </row>
     <row r="19" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="364"/>
-      <c r="B19" s="365"/>
-      <c r="C19" s="365"/>
-      <c r="D19" s="365"/>
-      <c r="E19" s="365"/>
-      <c r="F19" s="365"/>
-      <c r="G19" s="365"/>
-      <c r="H19" s="366"/>
+      <c r="A19" s="365"/>
+      <c r="B19" s="366"/>
+      <c r="C19" s="366"/>
+      <c r="D19" s="366"/>
+      <c r="E19" s="366"/>
+      <c r="F19" s="366"/>
+      <c r="G19" s="366"/>
+      <c r="H19" s="367"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="95" t="s">
@@ -28152,14 +28152,14 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="364"/>
-      <c r="B36" s="365"/>
-      <c r="C36" s="365"/>
-      <c r="D36" s="365"/>
-      <c r="E36" s="365"/>
-      <c r="F36" s="365"/>
-      <c r="G36" s="365"/>
-      <c r="H36" s="366"/>
+      <c r="A36" s="365"/>
+      <c r="B36" s="366"/>
+      <c r="C36" s="366"/>
+      <c r="D36" s="366"/>
+      <c r="E36" s="366"/>
+      <c r="F36" s="366"/>
+      <c r="G36" s="366"/>
+      <c r="H36" s="367"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="95" t="s">
@@ -28660,20 +28660,20 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="247"/>
-      <c r="B2" s="244" t="s">
+      <c r="A2" s="242"/>
+      <c r="B2" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="244" t="s">
+      <c r="C2" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="244" t="s">
+      <c r="D2" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="244" t="s">
+      <c r="E2" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="244" t="s">
+      <c r="F2" s="248" t="s">
         <v>48</v>
       </c>
       <c r="G2" s="381" t="s">
@@ -28684,12 +28684,12 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="247"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
+      <c r="A3" s="242"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
       <c r="G3" s="381"/>
       <c r="H3" s="381"/>
     </row>
@@ -30756,24 +30756,24 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="247"/>
-      <c r="B2" s="247" t="s">
+      <c r="A2" s="242"/>
+      <c r="B2" s="242" t="s">
         <v>524</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247" t="s">
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="247" t="s">
+      <c r="F2" s="242" t="s">
         <v>252</v>
       </c>
-      <c r="G2" s="247" t="s">
+      <c r="G2" s="242" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="247"/>
+      <c r="A3" s="242"/>
       <c r="B3" s="92" t="s">
         <v>9</v>
       </c>
@@ -30783,9 +30783,9 @@
       <c r="D3" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="95" t="s">
@@ -31346,39 +31346,39 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="385"/>
-      <c r="B2" s="384" t="s">
+      <c r="A2" s="382"/>
+      <c r="B2" s="385" t="s">
         <v>525</v>
       </c>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="382" t="s">
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="383" t="s">
         <v>254</v>
       </c>
-      <c r="F2" s="382" t="s">
+      <c r="F2" s="383" t="s">
         <v>255</v>
       </c>
-      <c r="G2" s="382" t="s">
+      <c r="G2" s="383" t="s">
         <v>256</v>
       </c>
-      <c r="H2" s="382" t="s">
+      <c r="H2" s="383" t="s">
         <v>257</v>
       </c>
-      <c r="I2" s="382" t="s">
+      <c r="I2" s="383" t="s">
         <v>258</v>
       </c>
-      <c r="J2" s="382" t="s">
+      <c r="J2" s="383" t="s">
         <v>259</v>
       </c>
-      <c r="K2" s="382" t="s">
+      <c r="K2" s="383" t="s">
         <v>260</v>
       </c>
-      <c r="L2" s="382" t="s">
+      <c r="L2" s="383" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="385"/>
+      <c r="A3" s="382"/>
       <c r="B3" s="159" t="s">
         <v>9</v>
       </c>
@@ -31388,14 +31388,14 @@
       <c r="D3" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="383"/>
-      <c r="F3" s="383"/>
-      <c r="G3" s="383"/>
-      <c r="H3" s="383"/>
-      <c r="I3" s="383"/>
-      <c r="J3" s="383"/>
-      <c r="K3" s="383"/>
-      <c r="L3" s="383"/>
+      <c r="E3" s="384"/>
+      <c r="F3" s="384"/>
+      <c r="G3" s="384"/>
+      <c r="H3" s="384"/>
+      <c r="I3" s="384"/>
+      <c r="J3" s="384"/>
+      <c r="K3" s="384"/>
+      <c r="L3" s="384"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="98" t="s">
@@ -32211,16 +32211,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -32263,40 +32263,40 @@
       <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="248" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="248" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="244" t="s">
+      <c r="C2" s="248" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="244" t="s">
+      <c r="D2" s="248" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="244" t="s">
+      <c r="E2" s="248" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="244" t="s">
+      <c r="F2" s="248" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="244" t="s">
+      <c r="G2" s="248" t="s">
         <v>354</v>
       </c>
-      <c r="H2" s="244" t="s">
+      <c r="H2" s="248" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="244"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
+      <c r="A3" s="248"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="248"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="95" t="s">
@@ -32864,36 +32864,36 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="247"/>
-      <c r="B2" s="295" t="s">
+      <c r="A2" s="242"/>
+      <c r="B2" s="296" t="s">
         <v>476</v>
       </c>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="338" t="s">
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="337" t="s">
         <v>482</v>
       </c>
-      <c r="F2" s="338" t="s">
+      <c r="F2" s="337" t="s">
         <v>262</v>
       </c>
-      <c r="G2" s="338" t="s">
+      <c r="G2" s="337" t="s">
         <v>263</v>
       </c>
-      <c r="H2" s="338" t="s">
+      <c r="H2" s="337" t="s">
         <v>264</v>
       </c>
-      <c r="I2" s="338" t="s">
+      <c r="I2" s="337" t="s">
         <v>265</v>
       </c>
-      <c r="J2" s="338" t="s">
+      <c r="J2" s="337" t="s">
         <v>266</v>
       </c>
-      <c r="K2" s="338" t="s">
+      <c r="K2" s="337" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="247"/>
+      <c r="A3" s="242"/>
       <c r="B3" s="112" t="s">
         <v>9</v>
       </c>
@@ -32903,13 +32903,13 @@
       <c r="D3" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="339"/>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339"/>
-      <c r="H3" s="339"/>
-      <c r="I3" s="339"/>
-      <c r="J3" s="339"/>
-      <c r="K3" s="339"/>
+      <c r="E3" s="338"/>
+      <c r="F3" s="338"/>
+      <c r="G3" s="338"/>
+      <c r="H3" s="338"/>
+      <c r="I3" s="338"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="338"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="95" t="s">
@@ -33738,7 +33738,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="247"/>
+      <c r="A2" s="242"/>
       <c r="B2" s="386" t="s">
         <v>9</v>
       </c>
@@ -33765,7 +33765,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="247"/>
+      <c r="A3" s="242"/>
       <c r="B3" s="387"/>
       <c r="C3" s="387"/>
       <c r="D3" s="387"/>
@@ -34448,50 +34448,50 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="247"/>
-      <c r="B2" s="244" t="s">
+      <c r="A2" s="242"/>
+      <c r="B2" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="244" t="s">
+      <c r="C2" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="244" t="s">
+      <c r="D2" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="244" t="s">
+      <c r="E2" s="248" t="s">
         <v>273</v>
       </c>
-      <c r="F2" s="244" t="s">
+      <c r="F2" s="248" t="s">
         <v>274</v>
       </c>
-      <c r="G2" s="244" t="s">
+      <c r="G2" s="248" t="s">
         <v>275</v>
       </c>
-      <c r="H2" s="244" t="s">
+      <c r="H2" s="248" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="244" t="s">
+      <c r="I2" s="248" t="s">
         <v>277</v>
       </c>
-      <c r="J2" s="244" t="s">
+      <c r="J2" s="248" t="s">
         <v>278</v>
       </c>
-      <c r="K2" s="244" t="s">
+      <c r="K2" s="248" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="247"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
+      <c r="A3" s="242"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="248"/>
+      <c r="I3" s="248"/>
+      <c r="J3" s="248"/>
+      <c r="K3" s="248"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="95" t="s">
@@ -35782,10 +35782,10 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C5E0E6-0E6B-457B-A2AE-FCD93AB75DEB}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="A1:G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36506,6 +36506,9 @@
       <c r="G31" s="234">
         <v>54.220820000000003</v>
       </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G32" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36546,20 +36549,20 @@
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="242" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="242" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="247" t="s">
+      <c r="C2" s="242" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247" t="s">
+      <c r="D2" s="242"/>
+      <c r="E2" s="242" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="247"/>
+      <c r="F2" s="242"/>
       <c r="G2" s="252" t="s">
         <v>509</v>
       </c>
@@ -36568,8 +36571,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="247"/>
-      <c r="B3" s="247"/>
+      <c r="A3" s="242"/>
+      <c r="B3" s="242"/>
       <c r="C3" s="92" t="s">
         <v>46</v>
       </c>
@@ -36691,10 +36694,10 @@
         <v>76</v>
       </c>
       <c r="F9" s="254"/>
-      <c r="G9" s="246" t="s">
+      <c r="G9" s="241" t="s">
         <v>509</v>
       </c>
-      <c r="H9" s="246" t="s">
+      <c r="H9" s="241" t="s">
         <v>516</v>
       </c>
       <c r="J9" s="14"/>
@@ -36714,8 +36717,8 @@
       <c r="F10" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="246"/>
-      <c r="H10" s="246"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="241"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="255"/>
@@ -36724,8 +36727,8 @@
       <c r="D11" s="254"/>
       <c r="E11" s="257"/>
       <c r="F11" s="257"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="241"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="179" t="s">
@@ -37076,10 +37079,10 @@
         <v>76</v>
       </c>
       <c r="F2" s="259"/>
-      <c r="G2" s="246" t="s">
+      <c r="G2" s="241" t="s">
         <v>509</v>
       </c>
-      <c r="H2" s="246" t="s">
+      <c r="H2" s="241" t="s">
         <v>516</v>
       </c>
     </row>
@@ -37098,8 +37101,8 @@
       <c r="F3" s="262" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="258"/>
@@ -37108,8 +37111,8 @@
       <c r="D4" s="261"/>
       <c r="E4" s="263"/>
       <c r="F4" s="263"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="179" t="s">
@@ -37593,55 +37596,55 @@
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
-      <c r="B2" s="272"/>
-      <c r="C2" s="264" t="s">
+      <c r="B2" s="270"/>
+      <c r="C2" s="272" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="264" t="s">
+      <c r="D2" s="272" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264" t="s">
+      <c r="E2" s="272"/>
+      <c r="F2" s="272" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="264"/>
-      <c r="H2" s="246" t="s">
+      <c r="G2" s="272"/>
+      <c r="H2" s="241" t="s">
         <v>509</v>
       </c>
-      <c r="I2" s="246" t="s">
+      <c r="I2" s="241" t="s">
         <v>516</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
-      <c r="B3" s="272"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264" t="s">
+      <c r="B3" s="270"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="264" t="s">
+      <c r="E3" s="272" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="264" t="s">
+      <c r="F3" s="272" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="264" t="s">
+      <c r="G3" s="272" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="273"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="246"/>
+      <c r="B4" s="271"/>
+      <c r="C4" s="272"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="184" t="s">
@@ -37849,54 +37852,54 @@
       <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="269" t="s">
+      <c r="B14" s="267" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="266" t="s">
+      <c r="C14" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="264" t="s">
+      <c r="D14" s="272" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="264"/>
-      <c r="F14" s="264" t="s">
+      <c r="E14" s="272"/>
+      <c r="F14" s="272" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="264"/>
-      <c r="H14" s="246" t="s">
+      <c r="G14" s="272"/>
+      <c r="H14" s="241" t="s">
         <v>509</v>
       </c>
-      <c r="I14" s="246" t="s">
+      <c r="I14" s="241" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="270"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="264" t="s">
+      <c r="B15" s="268"/>
+      <c r="C15" s="265"/>
+      <c r="D15" s="272" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="264" t="s">
+      <c r="E15" s="272" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="265" t="s">
+      <c r="F15" s="273" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="265" t="s">
+      <c r="G15" s="273" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="246"/>
-      <c r="I15" s="246"/>
+      <c r="H15" s="241"/>
+      <c r="I15" s="241"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="271"/>
-      <c r="C16" s="268"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="264"/>
-      <c r="F16" s="265"/>
-      <c r="G16" s="265"/>
-      <c r="H16" s="246"/>
-      <c r="I16" s="246"/>
+      <c r="B16" s="269"/>
+      <c r="C16" s="266"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="272"/>
+      <c r="F16" s="273"/>
+      <c r="G16" s="273"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="184"/>
@@ -39146,11 +39149,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="I14:I16"/>
@@ -39166,6 +39164,11 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
@@ -39224,10 +39227,10 @@
         <v>76</v>
       </c>
       <c r="G2" s="278"/>
-      <c r="H2" s="246" t="s">
+      <c r="H2" s="241" t="s">
         <v>509</v>
       </c>
-      <c r="I2" s="246" t="s">
+      <c r="I2" s="241" t="s">
         <v>516</v>
       </c>
       <c r="J2" s="14"/>
@@ -39248,8 +39251,8 @@
       <c r="G3" s="280" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -39259,8 +39262,8 @@
       <c r="E4" s="279"/>
       <c r="F4" s="280"/>
       <c r="G4" s="280"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="246"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" s="188" t="s">
@@ -39744,58 +39747,58 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
-      <c r="B2" s="282">
+      <c r="B2" s="283">
         <v>15</v>
       </c>
-      <c r="C2" s="283" t="s">
+      <c r="C2" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="284" t="s">
+      <c r="D2" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
-      <c r="H2" s="285" t="s">
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="285" t="s">
+      <c r="I2" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="285" t="s">
+      <c r="J2" s="282" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
-      <c r="B3" s="282"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="285" t="s">
+      <c r="B3" s="283"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="285" t="s">
+      <c r="E3" s="282" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="285" t="s">
+      <c r="F3" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="285" t="s">
+      <c r="G3" s="282" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="285"/>
-      <c r="I3" s="285"/>
-      <c r="J3" s="285"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="282"/>
     </row>
     <row r="4" spans="1:10" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="282"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="285"/>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285"/>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="282"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
+      <c r="J4" s="282"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="162" t="s">
@@ -40966,16 +40969,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
